--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3207.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3207.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.037485945712206</v>
+        <v>1.522586584091187</v>
       </c>
       <c r="B1">
-        <v>2.580313436052065</v>
+        <v>2.050639152526855</v>
       </c>
       <c r="C1">
-        <v>6.370456492396197</v>
+        <v>2.291865348815918</v>
       </c>
       <c r="D1">
-        <v>2.649214852560786</v>
+        <v>2.807581901550293</v>
       </c>
       <c r="E1">
-        <v>1.521009921638109</v>
+        <v>2.608596563339233</v>
       </c>
     </row>
   </sheetData>
